--- a/Sign up sheet.xlsx
+++ b/Sign up sheet.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="May" sheetId="2" r:id="rId2"/>
+    <sheet name="June" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -218,7 +219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -318,23 +319,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,8 +343,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,19 +685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -706,7 +717,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -717,7 +728,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -728,7 +739,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -739,7 +750,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -750,7 +761,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -761,7 +772,7 @@
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -772,7 +783,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -783,7 +794,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -794,7 +805,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -805,7 +816,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -816,7 +827,7 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -827,7 +838,7 @@
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -838,7 +849,7 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -849,7 +860,7 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -860,7 +871,7 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -871,7 +882,7 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -882,7 +893,7 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -893,7 +904,7 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -904,7 +915,7 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -915,7 +926,7 @@
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -926,7 +937,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -937,7 +948,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -948,7 +959,7 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -959,7 +970,7 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -970,7 +981,7 @@
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1018,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,110 +1055,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8">
         <v>43229</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>43230</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>43231</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>43234</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>43235</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <v>43236</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
         <v>43237</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="8">
         <v>43238</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5">
         <v>43241</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>43242</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>43243</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>43244</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>43245</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>43248</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <v>43249</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>43250</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <v>43251</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <v>43252</v>
       </c>
     </row>
@@ -1169,7 +1180,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1199,7 +1210,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1229,7 +1240,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1259,7 +1270,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1289,7 +1300,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1317,7 +1328,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1347,7 +1358,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1377,7 +1388,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1407,7 +1418,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1437,7 +1448,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1463,7 +1474,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1489,7 +1500,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1515,7 +1526,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1541,7 +1552,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1567,7 +1578,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1593,7 +1604,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1619,7 +1630,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1645,7 +1656,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1671,7 +1682,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1693,7 +1704,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1715,7 +1726,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1735,4 +1746,784 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="1.85546875" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14">
+        <v>43254</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43255</v>
+      </c>
+      <c r="D3" s="14">
+        <v>43256</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43257</v>
+      </c>
+      <c r="F3" s="14">
+        <v>43258</v>
+      </c>
+      <c r="G3" s="14">
+        <v>43259</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="6">
+        <v>43262</v>
+      </c>
+      <c r="J3" s="6">
+        <v>43263</v>
+      </c>
+      <c r="K3" s="6">
+        <v>43264</v>
+      </c>
+      <c r="L3" s="6">
+        <v>43265</v>
+      </c>
+      <c r="M3" s="6">
+        <v>43266</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="6">
+        <v>43269</v>
+      </c>
+      <c r="P3" s="6">
+        <v>43270</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>43271</v>
+      </c>
+      <c r="R3" s="6">
+        <v>43272</v>
+      </c>
+      <c r="S3" s="6">
+        <v>43273</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="6">
+        <v>43276</v>
+      </c>
+      <c r="V3" s="6">
+        <v>43277</v>
+      </c>
+      <c r="W3" s="6">
+        <v>43278</v>
+      </c>
+      <c r="X3" s="6">
+        <v>43279</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Y2"/>
+    <mergeCell ref="H3:H24"/>
+    <mergeCell ref="N3:N24"/>
+    <mergeCell ref="T3:T24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>